--- a/Expert_Analysis.xlsx
+++ b/Expert_Analysis.xlsx
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>

--- a/Expert_Analysis.xlsx
+++ b/Expert_Analysis.xlsx
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -672,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -706,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
@@ -1913,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
@@ -2627,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
@@ -2882,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
@@ -2967,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
@@ -3018,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
@@ -3120,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
@@ -3188,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
